--- a/Hardware_Selection/Hardware_Selection.xlsx
+++ b/Hardware_Selection/Hardware_Selection.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Prácticas_Sensores\Redes-de-Sensores\Hardware_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9A62E6-AD5B-44A1-87FD-39B823480002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6492889-2F32-4B2E-9EA7-9223356C5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA643D01-A4DF-4C04-B2E1-6D546141F62D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Componentes Arduino Nano 33 BLE" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensor de Movimiento" sheetId="2" r:id="rId2"/>
+    <sheet name="Alimentación (DC-DC)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +37,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>ID esquemático</t>
+  </si>
+  <si>
+    <t>Referencia del fabricante</t>
+  </si>
+  <si>
+    <t>Capacidades adicionales</t>
+  </si>
+  <si>
+    <t>Tensión de alimentación (Vcc)</t>
+  </si>
+  <si>
+    <t>Corriente de alimentación (Icc)</t>
+  </si>
+  <si>
+    <t>Operación</t>
+  </si>
+  <si>
+    <t>Id Fabricante</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>Precio/unidad (euros)</t>
+  </si>
+  <si>
+    <t>Tensión de alimentación (Vin)</t>
+  </si>
+  <si>
+    <t>Corriente de alimentación (Iin)</t>
+  </si>
+  <si>
+    <t>Rangos del acelerómetro</t>
+  </si>
+  <si>
+    <t>Rangos del  giróscopo</t>
+  </si>
+  <si>
+    <t>Sensibilidad del acelerómetro</t>
+  </si>
+  <si>
+    <t>Sensibilidad del giróscopo</t>
+  </si>
+  <si>
+    <t>Offset del acelerómetro</t>
+  </si>
+  <si>
+    <t>Offset del giróscopo</t>
+  </si>
+  <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
+    <t>Elementos externos necesarios</t>
+  </si>
+  <si>
+    <t>Id del fabricante</t>
+  </si>
+  <si>
+    <t>Precio/unidad (€)</t>
+  </si>
+  <si>
+    <t>V_out</t>
+  </si>
+  <si>
+    <t>I_out</t>
+  </si>
+  <si>
+    <t>Iq</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Protecciones</t>
+  </si>
+  <si>
+    <t>Precisión</t>
+  </si>
+  <si>
+    <t>Componentes adicionales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +166,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +301,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="A1:G9" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:N6" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{4FE576C8-B58E-4CFF-880C-5147F8D659B5}" name="Offset del giróscopo" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{5E5F0687-1F39-422D-8020-E426B0FB97FD}" name="Comunicaciones" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{7ED83427-C88C-440D-A5C6-C078AA2FFF55}" name="Capacidades adicionales" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{AB59801D-EC4B-47C4-803D-E84F11C769DE}" name="Elementos externos necesarios" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:J4" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +678,871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7622CB-5991-4C69-B41E-EA72B87D2234}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB50C4D0-9A2A-4627-A255-6151E3E5A6F8}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D1CC1F-3740-4A2F-9315-490460C0756B}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Hardware_Selection/Hardware_Selection.xlsx
+++ b/Hardware_Selection/Hardware_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Prácticas_Sensores\Redes-de-Sensores\Hardware_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6492889-2F32-4B2E-9EA7-9223356C5581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37837F49-362C-4F08-B57D-11FCDE585CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA643D01-A4DF-4C04-B2E1-6D546141F62D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Componente</t>
   </si>
@@ -125,6 +125,108 @@
   </si>
   <si>
     <t>Componentes adicionales</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>LPS-1</t>
+  </si>
+  <si>
+    <t>HTS221</t>
+  </si>
+  <si>
+    <t>NINA-B3X</t>
+  </si>
+  <si>
+    <t>LSM9DS1</t>
+  </si>
+  <si>
+    <t>MP34DT06JTR</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>APDS-9960</t>
+  </si>
+  <si>
+    <t>LPS22</t>
+  </si>
+  <si>
+    <t>MPM3610</t>
+  </si>
+  <si>
+    <t>uC</t>
+  </si>
+  <si>
+    <t>Sensor IMU</t>
+  </si>
+  <si>
+    <t>Micrófono</t>
+  </si>
+  <si>
+    <t>Light sensor</t>
+  </si>
+  <si>
+    <t>Conversor DCDC</t>
+  </si>
+  <si>
+    <t>Sensor de presión</t>
+  </si>
+  <si>
+    <t>Sensor de humedad</t>
+  </si>
+  <si>
+    <t>BLE, timers, RTC, PLL, USB 2.0, ADC, NFC, SPI, QSPI, I2C, PWM, GPIO, UART</t>
+  </si>
+  <si>
+    <t>SPI, I2C, sensor de Temperatura, multirango y multisensibilidad</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1,7 V - 4,6 V</t>
+  </si>
+  <si>
+    <t>1,9 V - 3,6 V</t>
+  </si>
+  <si>
+    <t>0,8 V a  Vin (4,5 V a 21 V)</t>
+  </si>
+  <si>
+    <t>1,8Vcc -&gt; 37 mA                       3,3Vcc -&gt; 20 mA</t>
+  </si>
+  <si>
+    <t>4,3 mA</t>
+  </si>
+  <si>
+    <t>3 A (&lt; 0,4 duty)</t>
+  </si>
+  <si>
+    <t>MANTENER</t>
+  </si>
+  <si>
+    <t>CAMBIAR</t>
+  </si>
+  <si>
+    <t>ELIMINAR</t>
   </si>
 </sst>
 </file>
@@ -146,12 +248,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,66 +294,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -261,19 +336,73 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -292,6 +421,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,58 +438,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
   <autoFilter ref="A1:G9" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:N6" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{4FE576C8-B58E-4CFF-880C-5147F8D659B5}" name="Offset del giróscopo" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{5E5F0687-1F39-422D-8020-E426B0FB97FD}" name="Comunicaciones" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{7ED83427-C88C-440D-A5C6-C078AA2FFF55}" name="Capacidades adicionales" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{AB59801D-EC4B-47C4-803D-E84F11C769DE}" name="Elementos externos necesarios" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{4FE576C8-B58E-4CFF-880C-5147F8D659B5}" name="Offset del giróscopo" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{5E5F0687-1F39-422D-8020-E426B0FB97FD}" name="Comunicaciones" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{7ED83427-C88C-440D-A5C6-C078AA2FFF55}" name="Capacidades adicionales" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{AB59801D-EC4B-47C4-803D-E84F11C769DE}" name="Elementos externos necesarios" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:J4" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,15 +815,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
@@ -718,84 +852,196 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -886,7 +1132,6 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware_Selection/Hardware_Selection.xlsx
+++ b/Hardware_Selection/Hardware_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Prácticas_Sensores\Redes-de-Sensores\Hardware_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37837F49-362C-4F08-B57D-11FCDE585CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA410BA-AD78-43B1-99F9-62077F1C7FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA643D01-A4DF-4C04-B2E1-6D546141F62D}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EA643D01-A4DF-4C04-B2E1-6D546141F62D}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes Arduino Nano 33 BLE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Componente</t>
   </si>
@@ -227,14 +227,100 @@
   </si>
   <si>
     <t>ELIMINAR</t>
+  </si>
+  <si>
+    <t>Explicaciones:</t>
+  </si>
+  <si>
+    <t>Del dispositivo Arduino Nano 33 BLE Sense tan solo nos debemos quedar con el uC, un sensor de movimiento y el convertidor de tensión ya que ahora se alimentará mediante batería. Por tanto se deberá mantener o sustituir U1, U2 y IC1. Mantener o cambiar se deberá a:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Se trata del microcontrolador de Nordic Semiconductors con comunicación BLE, por lo que puede ser útil y es necesario, ya que permite procesar los datos y enviar de forma externa mediante este protocolo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Los demás componentes no son necesarios para este proyecto ya que sus características no son necesarias, aumentan el tamaño, consumo y coste por lo que no resultan utiles.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conversor DC-DC que permite convertir los niveles de tensión a los requeridos por los distintos componentes, se deberá sustituir ya que ahora se querrá que la alimentación sea de una batería de Ion Litio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sensor IMU, contiene el acelerómetro y giróscopo, por lo que es esencial para este proyecto, sin embargo se puede obtener alguna versión que consuma menos y no es necesario que tenga tantas capacidades como el actual, por lo que se puede sustituir.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -247,8 +333,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,11 +381,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,12 +482,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -324,54 +542,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -399,25 +569,64 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,58 +647,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G9" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:N6" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{4FE576C8-B58E-4CFF-880C-5147F8D659B5}" name="Offset del giróscopo" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{5E5F0687-1F39-422D-8020-E426B0FB97FD}" name="Comunicaciones" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{7ED83427-C88C-440D-A5C6-C078AA2FFF55}" name="Capacidades adicionales" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{AB59801D-EC4B-47C4-803D-E84F11C769DE}" name="Elementos externos necesarios" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{4FE576C8-B58E-4CFF-880C-5147F8D659B5}" name="Offset del giróscopo" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{5E5F0687-1F39-422D-8020-E426B0FB97FD}" name="Comunicaciones" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{7ED83427-C88C-440D-A5C6-C078AA2FFF55}" name="Capacidades adicionales" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{AB59801D-EC4B-47C4-803D-E84F11C769DE}" name="Elementos externos necesarios" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:J4" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,7 +1024,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +1033,7 @@
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1044,62 +1253,74 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1134,6 +1355,14 @@
       <c r="G18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1519,7 +1748,7 @@
       <c r="P18" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1784,7 +2013,7 @@
       <c r="J18" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Hardware_Selection/Hardware_Selection.xlsx
+++ b/Hardware_Selection/Hardware_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Prácticas_Sensores\Redes-de-Sensores\Hardware_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA410BA-AD78-43B1-99F9-62077F1C7FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D378CB9-8194-411F-B369-FFFA1A8765E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EA643D01-A4DF-4C04-B2E1-6D546141F62D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
   <si>
     <t>Componente</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Fabricante</t>
-  </si>
-  <si>
-    <t>Precio/unidad (euros)</t>
   </si>
   <si>
     <t>Tensión de alimentación (Vin)</t>
@@ -304,6 +301,277 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Sensor IMU, contiene el acelerómetro y giróscopo, por lo que es esencial para este proyecto, sin embargo se puede obtener alguna versión que consuma menos y no es necesario que tenga tantas capacidades como el actual, por lo que se puede sustituir.</t>
+    </r>
+  </si>
+  <si>
+    <t>LMSDS1 (INICIAL)</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>1,9 mA (14,9 Hz) - 3,4 mA (952 Hz)</t>
+  </si>
+  <si>
+    <t>2g, 4g, 8g, 16g</t>
+  </si>
+  <si>
+    <t>245 dps, 500 dps, 2000 dps</t>
+  </si>
+  <si>
+    <t>0,061 mg/LSB, 0,122 mg/LSB, 0,244 mg/LSB, 0,732 mg/LSB</t>
+  </si>
+  <si>
+    <t>8,75 mdps/LSB, 17,5 mdps/LSB, 70 mdps/LSB</t>
+  </si>
+  <si>
+    <t>90 mg</t>
+  </si>
+  <si>
+    <t>30 dps</t>
+  </si>
+  <si>
+    <t>I2C, I2C Fast, SPI</t>
+  </si>
+  <si>
+    <t>Magnetómetro, sensor de temperatura</t>
+  </si>
+  <si>
+    <t>5 condensadores</t>
+  </si>
+  <si>
+    <t>LSM6DSO16IS</t>
+  </si>
+  <si>
+    <t>LSM6DSVTR</t>
+  </si>
+  <si>
+    <t>0,65 mA</t>
+  </si>
+  <si>
+    <t>0,595 mA</t>
+  </si>
+  <si>
+    <t>125dps, 250dps, 500dps, 1000dps, 2000dps o 4000dps</t>
+  </si>
+  <si>
+    <t>4,375 mdps/LSB, 8,75 mdps/LSB, 17,50 mdps/LSB, 35 mdps/LSB, 70 mdps/LSB, 140 mdps/LSB</t>
+  </si>
+  <si>
+    <t>0,061 mg/LSB, 0,122 mg/LSB, 0,244 mg/LSB, 0,488 mg/LSB</t>
+  </si>
+  <si>
+    <t>4,375 mdps/LSB, 8,75 mdps/LSB, 17,50 mdps/LSB, 35 mdps/LSB o 70 mdps/LSB</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>3 dps</t>
+  </si>
+  <si>
+    <t>1 dps</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura, triple nucleo para UI, EIS y OIS procesado de data</t>
+  </si>
+  <si>
+    <t>2 condensadores</t>
+  </si>
+  <si>
+    <t>TDK InvenSense</t>
+  </si>
+  <si>
+    <t>(1,71 V - 3,6 V)</t>
+  </si>
+  <si>
+    <t>(1,9 V - 3,6 V)</t>
+  </si>
+  <si>
+    <t>ICM-42670-P</t>
+  </si>
+  <si>
+    <t>0,55 mA (3,5 uA en sleep)</t>
+  </si>
+  <si>
+    <t>125 dps, 250 dps, 500 dps, 1000 dps, 2000 dps</t>
+  </si>
+  <si>
+    <t>250 dps, 500 dps, 1000 dps, 2000 dps</t>
+  </si>
+  <si>
+    <t>Bosch Sensortec</t>
+  </si>
+  <si>
+    <t>BMI323</t>
+  </si>
+  <si>
+    <t>(1,71 V - 3,63 V)</t>
+  </si>
+  <si>
+    <t>0,79 uA (7uA en standby)</t>
+  </si>
+  <si>
+    <t>0,061 g/LSB, 0,122 g/LSB, 0,244 g/LSB, 0,488 g/LSB</t>
+  </si>
+  <si>
+    <t>16.4 LSB/dps, 32,8 LSB/dps, 65,5 LSB/dps, 131 LSB/dps</t>
+  </si>
+  <si>
+    <t>262,1 LSB/dps, 131,1 LSB/dps, 65,5 LSB/dps, 32,8 LSB/dps, 16,4 LSB/dps</t>
+  </si>
+  <si>
+    <t>50 mg</t>
+  </si>
+  <si>
+    <t>I2C, I3C, SPI</t>
+  </si>
+  <si>
+    <t>Digital filters, temperature sensors (other versions)</t>
+  </si>
+  <si>
+    <t>3 condensadores</t>
+  </si>
+  <si>
+    <t>1. Tiene un precio más que razonable y su precio es muy inferior al original y más bajo que el resto.</t>
+  </si>
+  <si>
+    <t>2. Su consumo es el más bajo reduciendo considerablemente al original y teniendo un modo sleep de consumo muy reducido.</t>
+  </si>
+  <si>
+    <t>3. A pesar de que pierde algo de precisión en la sensibilidad del giroscopo, mantiene buena en la del aceleración y no es una gran pérdida.</t>
+  </si>
+  <si>
+    <t>4. Alimentación compatible con la del uC por lo que reduce el número de convertidores DC-DC.</t>
+  </si>
+  <si>
+    <t>STLQ015M25R</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Onsemi</t>
+  </si>
+  <si>
+    <t>1,5 V - 5,5 V</t>
+  </si>
+  <si>
+    <t>1,4 uA</t>
+  </si>
+  <si>
+    <t>2,5 V</t>
+  </si>
+  <si>
+    <t>150 mA</t>
+  </si>
+  <si>
+    <t>Cortocircuito, sobrecorriente, temperatura</t>
+  </si>
+  <si>
+    <t>LP2980IM5-ADJ/NOM3</t>
+  </si>
+  <si>
+    <t>NCP711BMT330TBG</t>
+  </si>
+  <si>
+    <t>3 condensadores y 2 resistencias</t>
+  </si>
+  <si>
+    <t>Sobrecorriente, temperatura</t>
+  </si>
+  <si>
+    <t>Cortocircuito, temperatura</t>
+  </si>
+  <si>
+    <t>100 mA</t>
+  </si>
+  <si>
+    <t>(-0,3 V - 22 V)</t>
+  </si>
+  <si>
+    <t>1,3 uA</t>
+  </si>
+  <si>
+    <t>55 uA - 350 uA</t>
+  </si>
+  <si>
+    <t>50 mA</t>
+  </si>
+  <si>
+    <t>2,2V - 16 V</t>
+  </si>
+  <si>
+    <t>1,2 V - 15 V</t>
+  </si>
+  <si>
+    <t>Debido a que la batería usada tendrá una tensión mínica de 3 V, se elige como tensión la mínima que se pueda para reducir consumos, utilizaremos 1,8 V que es compatible con el uC y el IMU.</t>
+  </si>
+  <si>
+    <t>1. Debe por tanto ser compatible con el uC y el sensor de movimiento.</t>
+  </si>
+  <si>
+    <t>2. Que su consumo de corriente sea lo justo para poder alimentar tranquilamente el resto de componentes pero sin necesidad de suministrar demasiada.</t>
+  </si>
+  <si>
+    <t>3. Las LDO son más barátas y no necesitan muchos elementos de filtrado como pueden ser inductancias o fuentes conmutadas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Por tanto de las posibilidades vistas la mejor opción será el  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NCP711BMT330TBG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, debido a que su precio es muy bajo, su corriente Iq es de 1,3 uA,  lo que asegura una mayor eficiencia, y la corriente de salida de 100 mA más que justo ya que el uC usará 37 mA y la corriente en el sensor IMU es mucho menor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Realizando un análisis de estos sensores inerciales el sensor que se debería escoger es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ICM-42670-P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debido a que:</t>
     </r>
   </si>
 </sst>
@@ -465,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,12 +780,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -545,85 +903,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -647,32 +927,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:G9" xr:uid="{468B7CAF-BB97-40E3-A668-2C35E236C50A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{25271165-4DC1-4F59-A596-6A237E4D339C}" name="Componente" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A5C29110-345D-4EFB-952C-4776B3C99F3B}" name="ID esquemático" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{94EBA022-08A0-4F3D-B53D-EB7759326081}" name="Referencia del fabricante" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{E9153460-67AF-4F63-818F-F2C812FA1ADA}" name="Capacidades adicionales" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{DA14F6A2-866C-4CA5-A278-FA951DC26D74}" name="Tensión de alimentación (Vcc)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{E18D998E-C559-4B8E-9D18-31730FAA2B51}" name="Corriente de alimentación (Icc)" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{4ECB779C-D3CE-48BD-9CD0-372F7163BA56}" name="Operación" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}" name="Tabla13" displayName="Tabla13" ref="A1:N6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="11">
   <autoFilter ref="A1:N6" xr:uid="{51D0BC31-2DA1-4523-85DC-EE6844809EF3}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (euros)" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{6FC377A5-22B1-492A-B003-8E17BBDE6B52}" name="Id Fabricante" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3DE1AA9D-D32D-4E3A-AA94-C5D4670D9819}" name="Fabricante" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1368F4DA-3E44-48E0-A662-89311E3CD865}" name="Precio/unidad (€)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4E84D757-3E78-46D4-8350-61B6DDE9818A}" name="Tensión de alimentación (Vin)" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{3FDBE7DF-66B5-4269-828E-8ACF09668E32}" name="Corriente de alimentación (Iin)" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{085DAC10-5996-44D1-AF92-BFF464DE3C4C}" name="Rangos del acelerómetro" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{BBA723F5-127E-46A9-B2EE-D3C7D1E59835}" name="Rangos del  giróscopo" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{22869692-40BE-47F8-A640-E9E58B84A36A}" name="Sensibilidad del acelerómetro" dataDxfId="18"/>
     <tableColumn id="10" xr3:uid="{35D09854-FA8E-4C94-AD59-90F26E4B0156}" name="Sensibilidad del giróscopo" dataDxfId="17"/>
     <tableColumn id="11" xr3:uid="{EF625348-C2AA-4A13-8E41-3A852745B89E}" name="Offset del acelerómetro" dataDxfId="16"/>
@@ -686,19 +966,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}" name="Tabla14" displayName="Tabla14" ref="A1:J4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="0">
   <autoFilter ref="A1:J4" xr:uid="{97EE58C3-617F-4AE7-AD60-D7302CF564CB}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{AD5A31E7-D309-4474-BBEA-1C1E065D68C2}" name="Id del fabricante" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E5BB0A74-6FD6-454D-A874-A9DF44CBAA7E}" name="Fabricante" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2B493A75-0472-4FB0-907E-8F4BC7F3C151}" name="Precio/unidad (€)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{04A2EE1E-EABE-4E10-9BF4-8D677DF180CD}" name="Vin" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AA4108E7-AC0D-48FA-99F2-37A4AD2EF297}" name="Iq" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5CD04F25-D6C7-4824-A3F2-CEB2AB75418F}" name="V_out" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{392105D3-0111-46D6-8F4F-AEE933C98665}" name="I_out" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1EA50C22-5707-4629-9FFA-199E8A699BBC}" name="Precisión" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{4C22A3AF-AC2A-4F0B-9483-EE6754DAAC40}" name="Protecciones" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D4B81997-BE5E-4942-818C-0B7F1D83B074}" name="Componentes adicionales" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1024,7 +1304,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,199 +1343,199 @@
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1267,7 +1547,7 @@
     </row>
     <row r="11" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1279,7 +1559,7 @@
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1291,7 +1571,7 @@
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1303,7 +1583,7 @@
     </row>
     <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1315,7 +1595,7 @@
     </row>
     <row r="15" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1375,23 +1655,24 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1403,138 +1684,280 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16">
+        <v>22.635000000000002</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3.12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1549,12 +1972,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1567,12 +1992,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1585,12 +2012,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1603,12 +2032,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:16" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1621,12 +2052,14 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1748,6 +2181,14 @@
       <c r="P18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1761,13 +2202,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
@@ -1778,76 +2219,138 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1856,12 +2359,14 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1869,47 +2374,55 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2013,6 +2526,14 @@
       <c r="J18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
